--- a/Data.xlsx
+++ b/Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -310,7 +310,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -430,7 +430,23 @@
     </row>
     <row r="14" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="17" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" s="2" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
